--- a/output/tables/mesh/level0/mesh_terms-world.xlsx
+++ b/output/tables/mesh/level0/mesh_terms-world.xlsx
@@ -497,79 +497,79 @@
         </is>
       </c>
       <c r="B2">
-        <v>6927</v>
+        <v>8335</v>
       </c>
       <c r="C2">
-        <v>7474</v>
+        <v>8950</v>
       </c>
       <c r="D2">
-        <v>7951</v>
+        <v>9450</v>
       </c>
       <c r="E2">
-        <v>8565</v>
+        <v>10140</v>
       </c>
       <c r="F2">
-        <v>9435</v>
+        <v>10948</v>
       </c>
       <c r="G2">
-        <v>10607</v>
+        <v>12135</v>
       </c>
       <c r="H2">
-        <v>12003</v>
+        <v>13543</v>
       </c>
       <c r="I2">
-        <v>13092</v>
+        <v>14714</v>
       </c>
       <c r="J2">
-        <v>13304</v>
+        <v>14980</v>
       </c>
       <c r="K2">
-        <v>14774</v>
+        <v>16553</v>
       </c>
       <c r="L2">
-        <v>15566</v>
+        <v>17263</v>
       </c>
       <c r="M2">
-        <v>17148</v>
+        <v>18969</v>
       </c>
       <c r="N2">
-        <v>18203</v>
+        <v>20028</v>
       </c>
       <c r="O2">
-        <v>19439</v>
+        <v>21560</v>
       </c>
       <c r="P2">
-        <v>20027</v>
+        <v>22108</v>
       </c>
       <c r="Q2">
-        <v>20676</v>
+        <v>22840</v>
       </c>
       <c r="R2">
-        <v>20953</v>
+        <v>22866</v>
       </c>
       <c r="S2">
-        <v>21578</v>
+        <v>23576</v>
       </c>
       <c r="T2">
-        <v>21130</v>
+        <v>25113</v>
       </c>
       <c r="U2">
-        <v>6065</v>
+        <v>27825</v>
       </c>
       <c r="V2">
-        <v>23</v>
+        <v>30892</v>
       </c>
       <c r="W2">
-        <v>5</v>
+        <v>35704</v>
       </c>
       <c r="X2">
-        <v>4</v>
+        <v>34667</v>
       </c>
       <c r="Y2">
-        <v>5</v>
+        <v>26696</v>
       </c>
       <c r="Z2">
-        <v>2</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3">
@@ -579,243 +579,243 @@
         </is>
       </c>
       <c r="B3">
-        <v>6352</v>
+        <v>7324</v>
       </c>
       <c r="C3">
-        <v>6914</v>
+        <v>7933</v>
       </c>
       <c r="D3">
-        <v>7427</v>
+        <v>8526</v>
       </c>
       <c r="E3">
-        <v>8316</v>
+        <v>9463</v>
       </c>
       <c r="F3">
-        <v>9525</v>
+        <v>10612</v>
       </c>
       <c r="G3">
-        <v>10665</v>
+        <v>11805</v>
       </c>
       <c r="H3">
-        <v>12035</v>
+        <v>13151</v>
       </c>
       <c r="I3">
-        <v>13255</v>
+        <v>14437</v>
       </c>
       <c r="J3">
-        <v>13667</v>
+        <v>14897</v>
       </c>
       <c r="K3">
-        <v>14860</v>
+        <v>16127</v>
       </c>
       <c r="L3">
-        <v>15338</v>
+        <v>16536</v>
       </c>
       <c r="M3">
-        <v>16742</v>
+        <v>17954</v>
       </c>
       <c r="N3">
-        <v>17608</v>
+        <v>18747</v>
       </c>
       <c r="O3">
-        <v>18855</v>
+        <v>20244</v>
       </c>
       <c r="P3">
-        <v>19128</v>
+        <v>20427</v>
       </c>
       <c r="Q3">
-        <v>19493</v>
+        <v>20920</v>
       </c>
       <c r="R3">
-        <v>19398</v>
+        <v>20609</v>
       </c>
       <c r="S3">
-        <v>19688</v>
+        <v>21105</v>
       </c>
       <c r="T3">
-        <v>19235</v>
+        <v>22442</v>
       </c>
       <c r="U3">
-        <v>5642</v>
+        <v>24770</v>
       </c>
       <c r="V3">
-        <v>23</v>
+        <v>26373</v>
       </c>
       <c r="W3">
-        <v>2</v>
+        <v>29342</v>
       </c>
       <c r="X3">
-        <v>4</v>
+        <v>27749</v>
       </c>
       <c r="Y3">
-        <v>3</v>
+        <v>21279</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Phenomena and Processes</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="B4">
-        <v>4565</v>
+        <v>5543</v>
       </c>
       <c r="C4">
-        <v>5042</v>
+        <v>6004</v>
       </c>
       <c r="D4">
-        <v>5533</v>
+        <v>6628</v>
       </c>
       <c r="E4">
-        <v>6202</v>
+        <v>7409</v>
       </c>
       <c r="F4">
-        <v>7203</v>
+        <v>8114</v>
       </c>
       <c r="G4">
-        <v>8091</v>
+        <v>9134</v>
       </c>
       <c r="H4">
-        <v>9204</v>
+        <v>10189</v>
       </c>
       <c r="I4">
-        <v>10245</v>
+        <v>10904</v>
       </c>
       <c r="J4">
-        <v>10768</v>
+        <v>11414</v>
       </c>
       <c r="K4">
-        <v>11761</v>
+        <v>12413</v>
       </c>
       <c r="L4">
-        <v>11931</v>
+        <v>12789</v>
       </c>
       <c r="M4">
-        <v>12874</v>
+        <v>13757</v>
       </c>
       <c r="N4">
-        <v>13574</v>
+        <v>14544</v>
       </c>
       <c r="O4">
-        <v>14555</v>
+        <v>15533</v>
       </c>
       <c r="P4">
-        <v>14753</v>
+        <v>15787</v>
       </c>
       <c r="Q4">
-        <v>14685</v>
+        <v>16116</v>
       </c>
       <c r="R4">
-        <v>14686</v>
+        <v>16000</v>
       </c>
       <c r="S4">
-        <v>15050</v>
+        <v>16258</v>
       </c>
       <c r="T4">
-        <v>14825</v>
+        <v>17313</v>
       </c>
       <c r="U4">
-        <v>4433</v>
+        <v>19081</v>
       </c>
       <c r="V4">
-        <v>19</v>
+        <v>20899</v>
       </c>
       <c r="W4">
-        <v>2</v>
+        <v>22729</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>22259</v>
       </c>
       <c r="Y4">
-        <v>3</v>
+        <v>16990</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Phenomena and Processes</t>
         </is>
       </c>
       <c r="B5">
-        <v>4635</v>
+        <v>5112</v>
       </c>
       <c r="C5">
-        <v>5038</v>
+        <v>5617</v>
       </c>
       <c r="D5">
-        <v>5599</v>
+        <v>6099</v>
       </c>
       <c r="E5">
-        <v>6332</v>
+        <v>6842</v>
       </c>
       <c r="F5">
-        <v>7088</v>
+        <v>7801</v>
       </c>
       <c r="G5">
-        <v>8056</v>
+        <v>8669</v>
       </c>
       <c r="H5">
-        <v>9128</v>
+        <v>9818</v>
       </c>
       <c r="I5">
-        <v>9769</v>
+        <v>10795</v>
       </c>
       <c r="J5">
-        <v>10217</v>
+        <v>11401</v>
       </c>
       <c r="K5">
-        <v>11202</v>
+        <v>12417</v>
       </c>
       <c r="L5">
-        <v>11584</v>
+        <v>12509</v>
       </c>
       <c r="M5">
-        <v>12556</v>
+        <v>13453</v>
       </c>
       <c r="N5">
-        <v>13457</v>
+        <v>14135</v>
       </c>
       <c r="O5">
-        <v>14271</v>
+        <v>15175</v>
       </c>
       <c r="P5">
-        <v>14530</v>
+        <v>15341</v>
       </c>
       <c r="Q5">
-        <v>14831</v>
+        <v>15300</v>
       </c>
       <c r="R5">
-        <v>14785</v>
+        <v>15224</v>
       </c>
       <c r="S5">
-        <v>15001</v>
+        <v>15660</v>
       </c>
       <c r="T5">
-        <v>14423</v>
+        <v>16763</v>
       </c>
       <c r="U5">
-        <v>4420</v>
+        <v>18996</v>
       </c>
       <c r="V5">
-        <v>16</v>
+        <v>20401</v>
       </c>
       <c r="W5">
-        <v>3</v>
+        <v>23814</v>
       </c>
       <c r="X5">
-        <v>4</v>
+        <v>24806</v>
       </c>
       <c r="Y5">
-        <v>5</v>
+        <v>19026</v>
       </c>
       <c r="Z5">
-        <v>2</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6">
@@ -825,325 +825,325 @@
         </is>
       </c>
       <c r="B6">
-        <v>3277</v>
+        <v>3578</v>
       </c>
       <c r="C6">
-        <v>3669</v>
+        <v>3990</v>
       </c>
       <c r="D6">
-        <v>4017</v>
+        <v>4364</v>
       </c>
       <c r="E6">
-        <v>4615</v>
+        <v>5002</v>
       </c>
       <c r="F6">
-        <v>5421</v>
+        <v>5783</v>
       </c>
       <c r="G6">
-        <v>6444</v>
+        <v>6821</v>
       </c>
       <c r="H6">
-        <v>7559</v>
+        <v>7949</v>
       </c>
       <c r="I6">
-        <v>8132</v>
+        <v>8505</v>
       </c>
       <c r="J6">
-        <v>8637</v>
+        <v>9070</v>
       </c>
       <c r="K6">
-        <v>9230</v>
+        <v>9673</v>
       </c>
       <c r="L6">
-        <v>9379</v>
+        <v>9777</v>
       </c>
       <c r="M6">
-        <v>10255</v>
+        <v>10671</v>
       </c>
       <c r="N6">
-        <v>10705</v>
+        <v>11128</v>
       </c>
       <c r="O6">
-        <v>11545</v>
+        <v>12032</v>
       </c>
       <c r="P6">
-        <v>11736</v>
+        <v>12263</v>
       </c>
       <c r="Q6">
-        <v>11893</v>
+        <v>12378</v>
       </c>
       <c r="R6">
-        <v>11427</v>
+        <v>11855</v>
       </c>
       <c r="S6">
-        <v>11843</v>
+        <v>12328</v>
       </c>
       <c r="T6">
-        <v>11911</v>
+        <v>13741</v>
       </c>
       <c r="U6">
-        <v>3656</v>
+        <v>15998</v>
       </c>
       <c r="V6">
-        <v>8</v>
+        <v>17046</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>19937</v>
       </c>
       <c r="X6">
-        <v>3</v>
+        <v>20490</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>15485</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Named Groups</t>
+          <t>Diseases</t>
         </is>
       </c>
       <c r="B7">
-        <v>2758</v>
+        <v>3426</v>
       </c>
       <c r="C7">
-        <v>2901</v>
+        <v>3591</v>
       </c>
       <c r="D7">
-        <v>3059</v>
+        <v>3719</v>
       </c>
       <c r="E7">
-        <v>3306</v>
+        <v>4077</v>
       </c>
       <c r="F7">
-        <v>3632</v>
+        <v>4441</v>
       </c>
       <c r="G7">
-        <v>4072</v>
+        <v>4874</v>
       </c>
       <c r="H7">
-        <v>4492</v>
+        <v>5323</v>
       </c>
       <c r="I7">
-        <v>4923</v>
+        <v>5835</v>
       </c>
       <c r="J7">
-        <v>5264</v>
+        <v>5976</v>
       </c>
       <c r="K7">
-        <v>5830</v>
+        <v>6456</v>
       </c>
       <c r="L7">
-        <v>6234</v>
+        <v>6778</v>
       </c>
       <c r="M7">
-        <v>7023</v>
+        <v>7664</v>
       </c>
       <c r="N7">
-        <v>7579</v>
+        <v>7912</v>
       </c>
       <c r="O7">
-        <v>8315</v>
+        <v>8560</v>
       </c>
       <c r="P7">
-        <v>8585</v>
+        <v>8740</v>
       </c>
       <c r="Q7">
-        <v>8974</v>
+        <v>9128</v>
       </c>
       <c r="R7">
-        <v>9249</v>
+        <v>9080</v>
       </c>
       <c r="S7">
-        <v>9435</v>
+        <v>9522</v>
       </c>
       <c r="T7">
-        <v>9393</v>
+        <v>10373</v>
       </c>
       <c r="U7">
-        <v>2477</v>
+        <v>11895</v>
       </c>
       <c r="V7">
-        <v>8</v>
+        <v>14266</v>
       </c>
       <c r="W7">
-        <v>3</v>
+        <v>16742</v>
       </c>
       <c r="X7">
-        <v>2</v>
+        <v>16845</v>
       </c>
       <c r="Y7">
-        <v>2</v>
+        <v>12826</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Psychiatry and Psychology</t>
+          <t>Named Groups</t>
         </is>
       </c>
       <c r="B8">
-        <v>2830</v>
+        <v>3167</v>
       </c>
       <c r="C8">
-        <v>3055</v>
+        <v>3339</v>
       </c>
       <c r="D8">
-        <v>3275</v>
+        <v>3513</v>
       </c>
       <c r="E8">
-        <v>3524</v>
+        <v>3748</v>
       </c>
       <c r="F8">
-        <v>3822</v>
+        <v>4073</v>
       </c>
       <c r="G8">
-        <v>4190</v>
+        <v>4513</v>
       </c>
       <c r="H8">
-        <v>4740</v>
+        <v>4928</v>
       </c>
       <c r="I8">
-        <v>5294</v>
+        <v>5419</v>
       </c>
       <c r="J8">
-        <v>5306</v>
+        <v>5752</v>
       </c>
       <c r="K8">
-        <v>5889</v>
+        <v>6392</v>
       </c>
       <c r="L8">
-        <v>6229</v>
+        <v>6731</v>
       </c>
       <c r="M8">
-        <v>6779</v>
+        <v>7509</v>
       </c>
       <c r="N8">
-        <v>7120</v>
+        <v>8032</v>
       </c>
       <c r="O8">
-        <v>7728</v>
+        <v>8846</v>
       </c>
       <c r="P8">
-        <v>7853</v>
+        <v>9094</v>
       </c>
       <c r="Q8">
-        <v>8010</v>
+        <v>9535</v>
       </c>
       <c r="R8">
-        <v>8265</v>
+        <v>9786</v>
       </c>
       <c r="S8">
-        <v>8263</v>
+        <v>10106</v>
       </c>
       <c r="T8">
-        <v>7923</v>
+        <v>11172</v>
       </c>
       <c r="U8">
-        <v>1999</v>
+        <v>12203</v>
       </c>
       <c r="V8">
-        <v>6</v>
+        <v>11874</v>
       </c>
       <c r="W8">
-        <v>4</v>
+        <v>11531</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>9154</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>6895</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Diseases</t>
+          <t>Psychiatry and Psychology</t>
         </is>
       </c>
       <c r="B9">
-        <v>2737</v>
+        <v>3225</v>
       </c>
       <c r="C9">
-        <v>2823</v>
+        <v>3506</v>
       </c>
       <c r="D9">
-        <v>2931</v>
+        <v>3690</v>
       </c>
       <c r="E9">
-        <v>3303</v>
+        <v>4015</v>
       </c>
       <c r="F9">
-        <v>3638</v>
+        <v>4270</v>
       </c>
       <c r="G9">
-        <v>4085</v>
+        <v>4690</v>
       </c>
       <c r="H9">
-        <v>4488</v>
+        <v>5220</v>
       </c>
       <c r="I9">
-        <v>4969</v>
+        <v>5810</v>
       </c>
       <c r="J9">
-        <v>5098</v>
+        <v>5829</v>
       </c>
       <c r="K9">
-        <v>5546</v>
+        <v>6429</v>
       </c>
       <c r="L9">
-        <v>5892</v>
+        <v>6756</v>
       </c>
       <c r="M9">
-        <v>6689</v>
+        <v>7312</v>
       </c>
       <c r="N9">
-        <v>6985</v>
+        <v>7625</v>
       </c>
       <c r="O9">
-        <v>7495</v>
+        <v>8364</v>
       </c>
       <c r="P9">
-        <v>7659</v>
+        <v>8448</v>
       </c>
       <c r="Q9">
-        <v>7983</v>
+        <v>8593</v>
       </c>
       <c r="R9">
-        <v>8111</v>
+        <v>8793</v>
       </c>
       <c r="S9">
-        <v>8515</v>
+        <v>8881</v>
       </c>
       <c r="T9">
-        <v>8480</v>
+        <v>9490</v>
       </c>
       <c r="U9">
-        <v>2374</v>
+        <v>10225</v>
       </c>
       <c r="V9">
-        <v>14</v>
+        <v>10549</v>
       </c>
       <c r="W9">
-        <v>2</v>
+        <v>11326</v>
       </c>
       <c r="X9">
-        <v>2</v>
+        <v>10765</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>8271</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1153,243 +1153,243 @@
         </is>
       </c>
       <c r="B10">
-        <v>2319</v>
+        <v>2547</v>
       </c>
       <c r="C10">
-        <v>2372</v>
+        <v>2620</v>
       </c>
       <c r="D10">
-        <v>2510</v>
+        <v>2747</v>
       </c>
       <c r="E10">
-        <v>2702</v>
+        <v>2959</v>
       </c>
       <c r="F10">
-        <v>3057</v>
+        <v>3285</v>
       </c>
       <c r="G10">
-        <v>3392</v>
+        <v>3651</v>
       </c>
       <c r="H10">
-        <v>3869</v>
+        <v>4107</v>
       </c>
       <c r="I10">
-        <v>4289</v>
+        <v>4551</v>
       </c>
       <c r="J10">
-        <v>4560</v>
+        <v>4800</v>
       </c>
       <c r="K10">
-        <v>5099</v>
+        <v>5372</v>
       </c>
       <c r="L10">
-        <v>5520</v>
+        <v>5745</v>
       </c>
       <c r="M10">
-        <v>6216</v>
+        <v>6591</v>
       </c>
       <c r="N10">
-        <v>6824</v>
+        <v>7285</v>
       </c>
       <c r="O10">
-        <v>7551</v>
+        <v>8149</v>
       </c>
       <c r="P10">
-        <v>7819</v>
+        <v>8427</v>
       </c>
       <c r="Q10">
-        <v>8211</v>
+        <v>8773</v>
       </c>
       <c r="R10">
-        <v>8248</v>
+        <v>8561</v>
       </c>
       <c r="S10">
-        <v>8482</v>
+        <v>8839</v>
       </c>
       <c r="T10">
-        <v>8481</v>
+        <v>9763</v>
       </c>
       <c r="U10">
-        <v>2192</v>
+        <v>10569</v>
       </c>
       <c r="V10">
-        <v>6</v>
+        <v>9140</v>
       </c>
       <c r="W10">
-        <v>2</v>
+        <v>6820</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>4126</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>2969</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Anatomy</t>
         </is>
       </c>
       <c r="B11">
-        <v>2230</v>
+        <v>2555</v>
       </c>
       <c r="C11">
-        <v>2261</v>
+        <v>2670</v>
       </c>
       <c r="D11">
-        <v>2391</v>
+        <v>2816</v>
       </c>
       <c r="E11">
-        <v>2639</v>
+        <v>3102</v>
       </c>
       <c r="F11">
-        <v>2973</v>
+        <v>3329</v>
       </c>
       <c r="G11">
-        <v>3327</v>
+        <v>3675</v>
       </c>
       <c r="H11">
-        <v>3703</v>
+        <v>4099</v>
       </c>
       <c r="I11">
-        <v>4124</v>
+        <v>4672</v>
       </c>
       <c r="J11">
-        <v>4394</v>
+        <v>4752</v>
       </c>
       <c r="K11">
-        <v>4976</v>
+        <v>5284</v>
       </c>
       <c r="L11">
-        <v>5361</v>
+        <v>5440</v>
       </c>
       <c r="M11">
-        <v>6008</v>
+        <v>5885</v>
       </c>
       <c r="N11">
-        <v>6684</v>
+        <v>6268</v>
       </c>
       <c r="O11">
-        <v>7373</v>
+        <v>6659</v>
       </c>
       <c r="P11">
-        <v>7610</v>
+        <v>6998</v>
       </c>
       <c r="Q11">
-        <v>7898</v>
+        <v>7043</v>
       </c>
       <c r="R11">
-        <v>7978</v>
+        <v>6998</v>
       </c>
       <c r="S11">
-        <v>8187</v>
+        <v>7222</v>
       </c>
       <c r="T11">
-        <v>8185</v>
+        <v>7801</v>
       </c>
       <c r="U11">
-        <v>2069</v>
+        <v>8536</v>
       </c>
       <c r="V11">
-        <v>7</v>
+        <v>8798</v>
       </c>
       <c r="W11">
-        <v>2</v>
+        <v>9898</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>9206</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>7563</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Anatomy</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B12">
-        <v>2268</v>
+        <v>2387</v>
       </c>
       <c r="C12">
-        <v>2356</v>
+        <v>2460</v>
       </c>
       <c r="D12">
-        <v>2514</v>
+        <v>2592</v>
       </c>
       <c r="E12">
-        <v>2764</v>
+        <v>2839</v>
       </c>
       <c r="F12">
-        <v>3060</v>
+        <v>3167</v>
       </c>
       <c r="G12">
-        <v>3393</v>
+        <v>3530</v>
       </c>
       <c r="H12">
-        <v>3803</v>
+        <v>3891</v>
       </c>
       <c r="I12">
-        <v>4365</v>
+        <v>4333</v>
       </c>
       <c r="J12">
-        <v>4412</v>
+        <v>4626</v>
       </c>
       <c r="K12">
-        <v>4912</v>
+        <v>5230</v>
       </c>
       <c r="L12">
-        <v>5143</v>
+        <v>5558</v>
       </c>
       <c r="M12">
-        <v>5555</v>
+        <v>6330</v>
       </c>
       <c r="N12">
-        <v>5917</v>
+        <v>7099</v>
       </c>
       <c r="O12">
-        <v>6241</v>
+        <v>7922</v>
       </c>
       <c r="P12">
-        <v>6611</v>
+        <v>8173</v>
       </c>
       <c r="Q12">
-        <v>6625</v>
+        <v>8412</v>
       </c>
       <c r="R12">
-        <v>6628</v>
+        <v>8269</v>
       </c>
       <c r="S12">
-        <v>6851</v>
+        <v>8500</v>
       </c>
       <c r="T12">
-        <v>6843</v>
+        <v>9424</v>
       </c>
       <c r="U12">
-        <v>1868</v>
+        <v>10034</v>
       </c>
       <c r="V12">
-        <v>8</v>
+        <v>8407</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>5884</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>2786</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1889</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -1399,79 +1399,79 @@
         </is>
       </c>
       <c r="B13">
-        <v>1911</v>
+        <v>2296</v>
       </c>
       <c r="C13">
-        <v>2135</v>
+        <v>2607</v>
       </c>
       <c r="D13">
-        <v>2387</v>
+        <v>2881</v>
       </c>
       <c r="E13">
-        <v>2703</v>
+        <v>3249</v>
       </c>
       <c r="F13">
-        <v>3225</v>
+        <v>3703</v>
       </c>
       <c r="G13">
-        <v>3665</v>
+        <v>4169</v>
       </c>
       <c r="H13">
-        <v>3937</v>
+        <v>4378</v>
       </c>
       <c r="I13">
-        <v>4490</v>
+        <v>4980</v>
       </c>
       <c r="J13">
-        <v>4481</v>
+        <v>4943</v>
       </c>
       <c r="K13">
-        <v>4797</v>
+        <v>5313</v>
       </c>
       <c r="L13">
-        <v>4900</v>
+        <v>5368</v>
       </c>
       <c r="M13">
-        <v>5226</v>
+        <v>5721</v>
       </c>
       <c r="N13">
-        <v>5459</v>
+        <v>5925</v>
       </c>
       <c r="O13">
-        <v>5673</v>
+        <v>6159</v>
       </c>
       <c r="P13">
-        <v>5605</v>
+        <v>6057</v>
       </c>
       <c r="Q13">
-        <v>5682</v>
+        <v>6175</v>
       </c>
       <c r="R13">
-        <v>5602</v>
+        <v>6021</v>
       </c>
       <c r="S13">
-        <v>5614</v>
+        <v>6043</v>
       </c>
       <c r="T13">
-        <v>5528</v>
+        <v>6414</v>
       </c>
       <c r="U13">
-        <v>1850</v>
+        <v>6926</v>
       </c>
       <c r="V13">
-        <v>10</v>
+        <v>7337</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>8226</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>8791</v>
       </c>
       <c r="Y13">
-        <v>2</v>
+        <v>6683</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -1481,79 +1481,79 @@
         </is>
       </c>
       <c r="B14">
-        <v>1812</v>
+        <v>2211</v>
       </c>
       <c r="C14">
-        <v>2094</v>
+        <v>2530</v>
       </c>
       <c r="D14">
-        <v>2289</v>
+        <v>2726</v>
       </c>
       <c r="E14">
-        <v>2668</v>
+        <v>3158</v>
       </c>
       <c r="F14">
-        <v>2965</v>
+        <v>3473</v>
       </c>
       <c r="G14">
-        <v>3345</v>
+        <v>3820</v>
       </c>
       <c r="H14">
-        <v>3834</v>
+        <v>4315</v>
       </c>
       <c r="I14">
-        <v>4058</v>
+        <v>4575</v>
       </c>
       <c r="J14">
-        <v>4183</v>
+        <v>4719</v>
       </c>
       <c r="K14">
-        <v>4780</v>
+        <v>5361</v>
       </c>
       <c r="L14">
-        <v>4703</v>
+        <v>5235</v>
       </c>
       <c r="M14">
-        <v>5064</v>
+        <v>5629</v>
       </c>
       <c r="N14">
-        <v>5284</v>
+        <v>5837</v>
       </c>
       <c r="O14">
-        <v>5687</v>
+        <v>6273</v>
       </c>
       <c r="P14">
-        <v>5629</v>
+        <v>6214</v>
       </c>
       <c r="Q14">
-        <v>5802</v>
+        <v>6442</v>
       </c>
       <c r="R14">
-        <v>5763</v>
+        <v>6310</v>
       </c>
       <c r="S14">
-        <v>6021</v>
+        <v>6603</v>
       </c>
       <c r="T14">
-        <v>5691</v>
+        <v>6899</v>
       </c>
       <c r="U14">
-        <v>1746</v>
+        <v>7683</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>7656</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>8291</v>
       </c>
       <c r="X14">
-        <v>2</v>
+        <v>7057</v>
       </c>
       <c r="Y14">
-        <v>2</v>
+        <v>5396</v>
       </c>
       <c r="Z14">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -1563,79 +1563,79 @@
         </is>
       </c>
       <c r="B15">
-        <v>1565</v>
+        <v>2003</v>
       </c>
       <c r="C15">
-        <v>1894</v>
+        <v>2327</v>
       </c>
       <c r="D15">
-        <v>1949</v>
+        <v>2441</v>
       </c>
       <c r="E15">
-        <v>2191</v>
+        <v>2684</v>
       </c>
       <c r="F15">
-        <v>2359</v>
+        <v>2842</v>
       </c>
       <c r="G15">
-        <v>2551</v>
+        <v>3069</v>
       </c>
       <c r="H15">
-        <v>2901</v>
+        <v>3374</v>
       </c>
       <c r="I15">
-        <v>3155</v>
+        <v>3672</v>
       </c>
       <c r="J15">
-        <v>3275</v>
+        <v>3803</v>
       </c>
       <c r="K15">
-        <v>3633</v>
+        <v>4166</v>
       </c>
       <c r="L15">
-        <v>3889</v>
+        <v>4448</v>
       </c>
       <c r="M15">
-        <v>4199</v>
+        <v>4763</v>
       </c>
       <c r="N15">
-        <v>4365</v>
+        <v>4849</v>
       </c>
       <c r="O15">
-        <v>4656</v>
+        <v>5257</v>
       </c>
       <c r="P15">
-        <v>4940</v>
+        <v>5505</v>
       </c>
       <c r="Q15">
-        <v>5161</v>
+        <v>5705</v>
       </c>
       <c r="R15">
-        <v>5187</v>
+        <v>5707</v>
       </c>
       <c r="S15">
-        <v>5149</v>
+        <v>5676</v>
       </c>
       <c r="T15">
-        <v>4997</v>
+        <v>6110</v>
       </c>
       <c r="U15">
-        <v>1397</v>
+        <v>6555</v>
       </c>
       <c r="V15">
-        <v>4</v>
+        <v>6988</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>7380</v>
       </c>
       <c r="X15">
-        <v>3</v>
+        <v>7107</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>5030</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
@@ -1645,79 +1645,79 @@
         </is>
       </c>
       <c r="B16">
-        <v>1323</v>
+        <v>1767</v>
       </c>
       <c r="C16">
-        <v>1568</v>
+        <v>1997</v>
       </c>
       <c r="D16">
-        <v>1599</v>
+        <v>2088</v>
       </c>
       <c r="E16">
-        <v>1856</v>
+        <v>2363</v>
       </c>
       <c r="F16">
-        <v>2008</v>
+        <v>2496</v>
       </c>
       <c r="G16">
-        <v>2203</v>
+        <v>2716</v>
       </c>
       <c r="H16">
-        <v>2528</v>
+        <v>2981</v>
       </c>
       <c r="I16">
-        <v>2678</v>
+        <v>3179</v>
       </c>
       <c r="J16">
-        <v>2607</v>
+        <v>3158</v>
       </c>
       <c r="K16">
-        <v>2681</v>
+        <v>3159</v>
       </c>
       <c r="L16">
-        <v>2981</v>
+        <v>3464</v>
       </c>
       <c r="M16">
-        <v>3243</v>
+        <v>3687</v>
       </c>
       <c r="N16">
-        <v>3507</v>
+        <v>3907</v>
       </c>
       <c r="O16">
-        <v>3667</v>
+        <v>4106</v>
       </c>
       <c r="P16">
-        <v>3666</v>
+        <v>4082</v>
       </c>
       <c r="Q16">
-        <v>3994</v>
+        <v>4388</v>
       </c>
       <c r="R16">
-        <v>4016</v>
+        <v>4424</v>
       </c>
       <c r="S16">
-        <v>3912</v>
+        <v>4299</v>
       </c>
       <c r="T16">
-        <v>3883</v>
+        <v>4653</v>
       </c>
       <c r="U16">
-        <v>1251</v>
+        <v>5055</v>
       </c>
       <c r="V16">
-        <v>6</v>
+        <v>5578</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>5460</v>
       </c>
       <c r="X16">
-        <v>3</v>
+        <v>4648</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>3359</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -1727,79 +1727,79 @@
         </is>
       </c>
       <c r="B17">
-        <v>879</v>
+        <v>1027</v>
       </c>
       <c r="C17">
-        <v>1010</v>
+        <v>1185</v>
       </c>
       <c r="D17">
-        <v>1178</v>
+        <v>1374</v>
       </c>
       <c r="E17">
-        <v>1294</v>
+        <v>1503</v>
       </c>
       <c r="F17">
-        <v>1384</v>
+        <v>1571</v>
       </c>
       <c r="G17">
-        <v>1547</v>
+        <v>1780</v>
       </c>
       <c r="H17">
-        <v>1906</v>
+        <v>2117</v>
       </c>
       <c r="I17">
-        <v>1933</v>
+        <v>2164</v>
       </c>
       <c r="J17">
-        <v>2052</v>
+        <v>2273</v>
       </c>
       <c r="K17">
-        <v>2368</v>
+        <v>2582</v>
       </c>
       <c r="L17">
-        <v>2418</v>
+        <v>2630</v>
       </c>
       <c r="M17">
-        <v>2883</v>
+        <v>3111</v>
       </c>
       <c r="N17">
-        <v>2907</v>
+        <v>3155</v>
       </c>
       <c r="O17">
-        <v>3103</v>
+        <v>3381</v>
       </c>
       <c r="P17">
-        <v>3166</v>
+        <v>3423</v>
       </c>
       <c r="Q17">
-        <v>3205</v>
+        <v>3452</v>
       </c>
       <c r="R17">
-        <v>3266</v>
+        <v>3509</v>
       </c>
       <c r="S17">
-        <v>3466</v>
+        <v>3681</v>
       </c>
       <c r="T17">
-        <v>3485</v>
+        <v>3952</v>
       </c>
       <c r="U17">
-        <v>1191</v>
+        <v>4176</v>
       </c>
       <c r="V17">
-        <v>7</v>
+        <v>4448</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>4769</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>4988</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>3480</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
@@ -1809,79 +1809,79 @@
         </is>
       </c>
       <c r="B18">
-        <v>464</v>
+        <v>611</v>
       </c>
       <c r="C18">
-        <v>575</v>
+        <v>732</v>
       </c>
       <c r="D18">
-        <v>540</v>
+        <v>689</v>
       </c>
       <c r="E18">
-        <v>645</v>
+        <v>813</v>
       </c>
       <c r="F18">
-        <v>687</v>
+        <v>854</v>
       </c>
       <c r="G18">
-        <v>750</v>
+        <v>926</v>
       </c>
       <c r="H18">
-        <v>745</v>
+        <v>900</v>
       </c>
       <c r="I18">
-        <v>823</v>
+        <v>975</v>
       </c>
       <c r="J18">
-        <v>826</v>
+        <v>1025</v>
       </c>
       <c r="K18">
-        <v>958</v>
+        <v>1113</v>
       </c>
       <c r="L18">
-        <v>1006</v>
+        <v>1156</v>
       </c>
       <c r="M18">
-        <v>1046</v>
+        <v>1177</v>
       </c>
       <c r="N18">
-        <v>1065</v>
+        <v>1195</v>
       </c>
       <c r="O18">
-        <v>1040</v>
+        <v>1192</v>
       </c>
       <c r="P18">
-        <v>1057</v>
+        <v>1211</v>
       </c>
       <c r="Q18">
-        <v>1106</v>
+        <v>1259</v>
       </c>
       <c r="R18">
-        <v>1127</v>
+        <v>1255</v>
       </c>
       <c r="S18">
-        <v>1051</v>
+        <v>1161</v>
       </c>
       <c r="T18">
-        <v>1028</v>
+        <v>1297</v>
       </c>
       <c r="U18">
-        <v>272</v>
+        <v>1364</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>1438</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1478</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1385</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1015</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2036,79 +2036,79 @@
         </is>
       </c>
       <c r="B2">
-        <v>5790</v>
+        <v>6721</v>
       </c>
       <c r="C2">
-        <v>6354</v>
+        <v>7330</v>
       </c>
       <c r="D2">
-        <v>6792</v>
+        <v>7787</v>
       </c>
       <c r="E2">
-        <v>7374</v>
+        <v>8504</v>
       </c>
       <c r="F2">
-        <v>8305</v>
+        <v>9378</v>
       </c>
       <c r="G2">
-        <v>9353</v>
+        <v>10439</v>
       </c>
       <c r="H2">
-        <v>10791</v>
+        <v>11941</v>
       </c>
       <c r="I2">
-        <v>11894</v>
+        <v>13105</v>
       </c>
       <c r="J2">
-        <v>12284</v>
+        <v>13636</v>
       </c>
       <c r="K2">
-        <v>13768</v>
+        <v>15219</v>
       </c>
       <c r="L2">
-        <v>14608</v>
+        <v>16053</v>
       </c>
       <c r="M2">
-        <v>16154</v>
+        <v>17663</v>
       </c>
       <c r="N2">
-        <v>17195</v>
+        <v>18756</v>
       </c>
       <c r="O2">
-        <v>18500</v>
+        <v>20341</v>
       </c>
       <c r="P2">
-        <v>19078</v>
+        <v>20877</v>
       </c>
       <c r="Q2">
-        <v>19733</v>
+        <v>21667</v>
       </c>
       <c r="R2">
-        <v>20154</v>
+        <v>21917</v>
       </c>
       <c r="S2">
-        <v>20972</v>
+        <v>22889</v>
       </c>
       <c r="T2">
-        <v>20683</v>
+        <v>24590</v>
       </c>
       <c r="U2">
-        <v>5909</v>
+        <v>27439</v>
       </c>
       <c r="V2">
-        <v>23</v>
+        <v>30561</v>
       </c>
       <c r="W2">
-        <v>5</v>
+        <v>35343</v>
       </c>
       <c r="X2">
-        <v>4</v>
+        <v>34397</v>
       </c>
       <c r="Y2">
-        <v>5</v>
+        <v>26515</v>
       </c>
       <c r="Z2">
-        <v>2</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3">
@@ -2118,243 +2118,243 @@
         </is>
       </c>
       <c r="B3">
-        <v>5397</v>
+        <v>6035</v>
       </c>
       <c r="C3">
-        <v>5914</v>
+        <v>6584</v>
       </c>
       <c r="D3">
-        <v>6430</v>
+        <v>7174</v>
       </c>
       <c r="E3">
-        <v>7275</v>
+        <v>8140</v>
       </c>
       <c r="F3">
-        <v>8520</v>
+        <v>9294</v>
       </c>
       <c r="G3">
-        <v>9580</v>
+        <v>10425</v>
       </c>
       <c r="H3">
-        <v>10951</v>
+        <v>11817</v>
       </c>
       <c r="I3">
-        <v>12228</v>
+        <v>13132</v>
       </c>
       <c r="J3">
-        <v>12711</v>
+        <v>13738</v>
       </c>
       <c r="K3">
-        <v>13975</v>
+        <v>15009</v>
       </c>
       <c r="L3">
-        <v>14510</v>
+        <v>15553</v>
       </c>
       <c r="M3">
-        <v>15879</v>
+        <v>16910</v>
       </c>
       <c r="N3">
-        <v>16695</v>
+        <v>17671</v>
       </c>
       <c r="O3">
-        <v>18001</v>
+        <v>19211</v>
       </c>
       <c r="P3">
-        <v>18298</v>
+        <v>19422</v>
       </c>
       <c r="Q3">
-        <v>18607</v>
+        <v>19886</v>
       </c>
       <c r="R3">
-        <v>18724</v>
+        <v>19841</v>
       </c>
       <c r="S3">
-        <v>19219</v>
+        <v>20582</v>
       </c>
       <c r="T3">
-        <v>18885</v>
+        <v>22039</v>
       </c>
       <c r="U3">
-        <v>5511</v>
+        <v>24485</v>
       </c>
       <c r="V3">
-        <v>23</v>
+        <v>26143</v>
       </c>
       <c r="W3">
-        <v>2</v>
+        <v>29104</v>
       </c>
       <c r="X3">
-        <v>4</v>
+        <v>27569</v>
       </c>
       <c r="Y3">
-        <v>3</v>
+        <v>21156</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Phenomena and Processes</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="B4">
-        <v>4034</v>
+        <v>4393</v>
       </c>
       <c r="C4">
-        <v>4521</v>
+        <v>4808</v>
       </c>
       <c r="D4">
-        <v>4955</v>
+        <v>5390</v>
       </c>
       <c r="E4">
-        <v>5635</v>
+        <v>6156</v>
       </c>
       <c r="F4">
-        <v>6658</v>
+        <v>6933</v>
       </c>
       <c r="G4">
-        <v>7483</v>
+        <v>7880</v>
       </c>
       <c r="H4">
-        <v>8636</v>
+        <v>8990</v>
       </c>
       <c r="I4">
-        <v>9704</v>
+        <v>9687</v>
       </c>
       <c r="J4">
-        <v>10259</v>
+        <v>10339</v>
       </c>
       <c r="K4">
-        <v>11312</v>
+        <v>11378</v>
       </c>
       <c r="L4">
-        <v>11529</v>
+        <v>11846</v>
       </c>
       <c r="M4">
-        <v>12416</v>
+        <v>12760</v>
       </c>
       <c r="N4">
-        <v>13109</v>
+        <v>13517</v>
       </c>
       <c r="O4">
-        <v>14096</v>
+        <v>14527</v>
       </c>
       <c r="P4">
-        <v>14325</v>
+        <v>14805</v>
       </c>
       <c r="Q4">
-        <v>14214</v>
+        <v>15095</v>
       </c>
       <c r="R4">
-        <v>14384</v>
+        <v>15233</v>
       </c>
       <c r="S4">
-        <v>14820</v>
+        <v>15698</v>
       </c>
       <c r="T4">
-        <v>14674</v>
+        <v>16894</v>
       </c>
       <c r="U4">
-        <v>4372</v>
+        <v>18769</v>
       </c>
       <c r="V4">
-        <v>19</v>
+        <v>20657</v>
       </c>
       <c r="W4">
-        <v>2</v>
+        <v>22481</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>22087</v>
       </c>
       <c r="Y4">
-        <v>3</v>
+        <v>16872</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Phenomena and Processes</t>
         </is>
       </c>
       <c r="B5">
-        <v>3820</v>
+        <v>4444</v>
       </c>
       <c r="C5">
-        <v>4193</v>
+        <v>4945</v>
       </c>
       <c r="D5">
-        <v>4732</v>
+        <v>5374</v>
       </c>
       <c r="E5">
-        <v>5422</v>
+        <v>6166</v>
       </c>
       <c r="F5">
-        <v>6216</v>
+        <v>7119</v>
       </c>
       <c r="G5">
-        <v>7120</v>
+        <v>7934</v>
       </c>
       <c r="H5">
-        <v>8203</v>
+        <v>9124</v>
       </c>
       <c r="I5">
-        <v>8861</v>
+        <v>10166</v>
       </c>
       <c r="J5">
-        <v>9394</v>
+        <v>10805</v>
       </c>
       <c r="K5">
-        <v>10407</v>
+        <v>11892</v>
       </c>
       <c r="L5">
-        <v>10830</v>
+        <v>12057</v>
       </c>
       <c r="M5">
-        <v>11775</v>
+        <v>12935</v>
       </c>
       <c r="N5">
-        <v>12634</v>
+        <v>13615</v>
       </c>
       <c r="O5">
-        <v>13467</v>
+        <v>14637</v>
       </c>
       <c r="P5">
-        <v>13747</v>
+        <v>14848</v>
       </c>
       <c r="Q5">
-        <v>14006</v>
+        <v>14770</v>
       </c>
       <c r="R5">
-        <v>14144</v>
+        <v>14890</v>
       </c>
       <c r="S5">
-        <v>14502</v>
+        <v>15417</v>
       </c>
       <c r="T5">
-        <v>14055</v>
+        <v>16588</v>
       </c>
       <c r="U5">
-        <v>4296</v>
+        <v>18857</v>
       </c>
       <c r="V5">
-        <v>16</v>
+        <v>20293</v>
       </c>
       <c r="W5">
-        <v>3</v>
+        <v>23719</v>
       </c>
       <c r="X5">
-        <v>4</v>
+        <v>24729</v>
       </c>
       <c r="Y5">
-        <v>5</v>
+        <v>18980</v>
       </c>
       <c r="Z5">
-        <v>2</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6">
@@ -2364,325 +2364,325 @@
         </is>
       </c>
       <c r="B6">
-        <v>2778</v>
+        <v>2994</v>
       </c>
       <c r="C6">
-        <v>3158</v>
+        <v>3384</v>
       </c>
       <c r="D6">
-        <v>3454</v>
+        <v>3709</v>
       </c>
       <c r="E6">
-        <v>4058</v>
+        <v>4365</v>
       </c>
       <c r="F6">
-        <v>4869</v>
+        <v>5143</v>
       </c>
       <c r="G6">
-        <v>5775</v>
+        <v>6064</v>
       </c>
       <c r="H6">
-        <v>6906</v>
+        <v>7217</v>
       </c>
       <c r="I6">
-        <v>7541</v>
+        <v>7839</v>
       </c>
       <c r="J6">
-        <v>8076</v>
+        <v>8446</v>
       </c>
       <c r="K6">
-        <v>8745</v>
+        <v>9115</v>
       </c>
       <c r="L6">
-        <v>8931</v>
+        <v>9282</v>
       </c>
       <c r="M6">
-        <v>9791</v>
+        <v>10152</v>
       </c>
       <c r="N6">
-        <v>10216</v>
+        <v>10585</v>
       </c>
       <c r="O6">
-        <v>11057</v>
+        <v>11487</v>
       </c>
       <c r="P6">
-        <v>11268</v>
+        <v>11729</v>
       </c>
       <c r="Q6">
-        <v>11404</v>
+        <v>11847</v>
       </c>
       <c r="R6">
-        <v>11045</v>
+        <v>11435</v>
       </c>
       <c r="S6">
-        <v>11512</v>
+        <v>11988</v>
       </c>
       <c r="T6">
-        <v>11694</v>
+        <v>13499</v>
       </c>
       <c r="U6">
-        <v>3581</v>
+        <v>15830</v>
       </c>
       <c r="V6">
-        <v>8</v>
+        <v>16913</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>19805</v>
       </c>
       <c r="X6">
-        <v>3</v>
+        <v>20389</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>15433</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Named Groups</t>
+          <t>Diseases</t>
         </is>
       </c>
       <c r="B7">
-        <v>2302</v>
+        <v>2657</v>
       </c>
       <c r="C7">
-        <v>2467</v>
+        <v>2801</v>
       </c>
       <c r="D7">
-        <v>2607</v>
+        <v>2933</v>
       </c>
       <c r="E7">
-        <v>2848</v>
+        <v>3261</v>
       </c>
       <c r="F7">
-        <v>3184</v>
+        <v>3689</v>
       </c>
       <c r="G7">
-        <v>3611</v>
+        <v>4112</v>
       </c>
       <c r="H7">
-        <v>4080</v>
+        <v>4580</v>
       </c>
       <c r="I7">
-        <v>4481</v>
+        <v>5096</v>
       </c>
       <c r="J7">
-        <v>4892</v>
+        <v>5335</v>
       </c>
       <c r="K7">
-        <v>5426</v>
+        <v>5844</v>
       </c>
       <c r="L7">
-        <v>5874</v>
+        <v>6254</v>
       </c>
       <c r="M7">
-        <v>6634</v>
+        <v>7033</v>
       </c>
       <c r="N7">
-        <v>7147</v>
+        <v>7302</v>
       </c>
       <c r="O7">
-        <v>7936</v>
+        <v>8021</v>
       </c>
       <c r="P7">
-        <v>8207</v>
+        <v>8156</v>
       </c>
       <c r="Q7">
-        <v>8623</v>
+        <v>8621</v>
       </c>
       <c r="R7">
-        <v>8943</v>
+        <v>8683</v>
       </c>
       <c r="S7">
-        <v>9203</v>
+        <v>9231</v>
       </c>
       <c r="T7">
-        <v>9206</v>
+        <v>10160</v>
       </c>
       <c r="U7">
-        <v>2424</v>
+        <v>11731</v>
       </c>
       <c r="V7">
-        <v>8</v>
+        <v>14087</v>
       </c>
       <c r="W7">
-        <v>3</v>
+        <v>16573</v>
       </c>
       <c r="X7">
-        <v>2</v>
+        <v>16713</v>
       </c>
       <c r="Y7">
-        <v>2</v>
+        <v>12753</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Psychiatry and Psychology</t>
+          <t>Named Groups</t>
         </is>
       </c>
       <c r="B8">
-        <v>2473</v>
+        <v>2567</v>
       </c>
       <c r="C8">
-        <v>2683</v>
+        <v>2765</v>
       </c>
       <c r="D8">
-        <v>2861</v>
+        <v>2895</v>
       </c>
       <c r="E8">
-        <v>3134</v>
+        <v>3137</v>
       </c>
       <c r="F8">
-        <v>3437</v>
+        <v>3499</v>
       </c>
       <c r="G8">
-        <v>3784</v>
+        <v>3908</v>
       </c>
       <c r="H8">
-        <v>4353</v>
+        <v>4404</v>
       </c>
       <c r="I8">
-        <v>4880</v>
+        <v>4854</v>
       </c>
       <c r="J8">
-        <v>4976</v>
+        <v>5279</v>
       </c>
       <c r="K8">
-        <v>5514</v>
+        <v>5856</v>
       </c>
       <c r="L8">
-        <v>5894</v>
+        <v>6278</v>
       </c>
       <c r="M8">
-        <v>6413</v>
+        <v>7026</v>
       </c>
       <c r="N8">
-        <v>6754</v>
+        <v>7511</v>
       </c>
       <c r="O8">
-        <v>7381</v>
+        <v>8376</v>
       </c>
       <c r="P8">
-        <v>7506</v>
+        <v>8626</v>
       </c>
       <c r="Q8">
-        <v>7651</v>
+        <v>9098</v>
       </c>
       <c r="R8">
-        <v>7947</v>
+        <v>9418</v>
       </c>
       <c r="S8">
-        <v>8032</v>
+        <v>9842</v>
       </c>
       <c r="T8">
-        <v>7734</v>
+        <v>10958</v>
       </c>
       <c r="U8">
-        <v>1939</v>
+        <v>12047</v>
       </c>
       <c r="V8">
-        <v>6</v>
+        <v>11755</v>
       </c>
       <c r="W8">
-        <v>4</v>
+        <v>11409</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>9076</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>6833</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Diseases</t>
+          <t>Psychiatry and Psychology</t>
         </is>
       </c>
       <c r="B9">
-        <v>2221</v>
+        <v>2736</v>
       </c>
       <c r="C9">
-        <v>2321</v>
+        <v>2989</v>
       </c>
       <c r="D9">
-        <v>2438</v>
+        <v>3122</v>
       </c>
       <c r="E9">
-        <v>2749</v>
+        <v>3472</v>
       </c>
       <c r="F9">
-        <v>3151</v>
+        <v>3762</v>
       </c>
       <c r="G9">
-        <v>3550</v>
+        <v>4156</v>
       </c>
       <c r="H9">
-        <v>3972</v>
+        <v>4709</v>
       </c>
       <c r="I9">
-        <v>4452</v>
+        <v>5263</v>
       </c>
       <c r="J9">
-        <v>4632</v>
+        <v>5396</v>
       </c>
       <c r="K9">
-        <v>5122</v>
+        <v>5938</v>
       </c>
       <c r="L9">
-        <v>5500</v>
+        <v>6334</v>
       </c>
       <c r="M9">
-        <v>6241</v>
+        <v>6863</v>
       </c>
       <c r="N9">
-        <v>6528</v>
+        <v>7184</v>
       </c>
       <c r="O9">
-        <v>7093</v>
+        <v>7922</v>
       </c>
       <c r="P9">
-        <v>7235</v>
+        <v>8008</v>
       </c>
       <c r="Q9">
-        <v>7607</v>
+        <v>8160</v>
       </c>
       <c r="R9">
-        <v>7793</v>
+        <v>8439</v>
       </c>
       <c r="S9">
-        <v>8274</v>
+        <v>8627</v>
       </c>
       <c r="T9">
-        <v>8306</v>
+        <v>9289</v>
       </c>
       <c r="U9">
-        <v>2314</v>
+        <v>10072</v>
       </c>
       <c r="V9">
-        <v>14</v>
+        <v>10456</v>
       </c>
       <c r="W9">
-        <v>2</v>
+        <v>11214</v>
       </c>
       <c r="X9">
-        <v>2</v>
+        <v>10687</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>8220</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -2692,243 +2692,243 @@
         </is>
       </c>
       <c r="B10">
-        <v>2019</v>
+        <v>2179</v>
       </c>
       <c r="C10">
-        <v>2085</v>
+        <v>2255</v>
       </c>
       <c r="D10">
-        <v>2205</v>
+        <v>2373</v>
       </c>
       <c r="E10">
-        <v>2385</v>
+        <v>2556</v>
       </c>
       <c r="F10">
-        <v>2760</v>
+        <v>2921</v>
       </c>
       <c r="G10">
-        <v>3090</v>
+        <v>3273</v>
       </c>
       <c r="H10">
-        <v>3579</v>
+        <v>3751</v>
       </c>
       <c r="I10">
-        <v>3992</v>
+        <v>4190</v>
       </c>
       <c r="J10">
-        <v>4296</v>
+        <v>4493</v>
       </c>
       <c r="K10">
-        <v>4831</v>
+        <v>5043</v>
       </c>
       <c r="L10">
-        <v>5282</v>
+        <v>5468</v>
       </c>
       <c r="M10">
-        <v>5921</v>
+        <v>6249</v>
       </c>
       <c r="N10">
-        <v>6518</v>
+        <v>6931</v>
       </c>
       <c r="O10">
-        <v>7275</v>
+        <v>7811</v>
       </c>
       <c r="P10">
-        <v>7549</v>
+        <v>8108</v>
       </c>
       <c r="Q10">
-        <v>7977</v>
+        <v>8495</v>
       </c>
       <c r="R10">
-        <v>8052</v>
+        <v>8341</v>
       </c>
       <c r="S10">
-        <v>8360</v>
+        <v>8699</v>
       </c>
       <c r="T10">
-        <v>8383</v>
+        <v>9651</v>
       </c>
       <c r="U10">
-        <v>2176</v>
+        <v>10488</v>
       </c>
       <c r="V10">
-        <v>6</v>
+        <v>9086</v>
       </c>
       <c r="W10">
-        <v>2</v>
+        <v>6785</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>4097</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>2956</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Anatomy</t>
         </is>
       </c>
       <c r="B11">
-        <v>1932</v>
+        <v>2212</v>
       </c>
       <c r="C11">
-        <v>1993</v>
+        <v>2338</v>
       </c>
       <c r="D11">
-        <v>2108</v>
+        <v>2485</v>
       </c>
       <c r="E11">
-        <v>2340</v>
+        <v>2774</v>
       </c>
       <c r="F11">
-        <v>2700</v>
+        <v>3016</v>
       </c>
       <c r="G11">
-        <v>3039</v>
+        <v>3356</v>
       </c>
       <c r="H11">
-        <v>3452</v>
+        <v>3773</v>
       </c>
       <c r="I11">
-        <v>3845</v>
+        <v>4364</v>
       </c>
       <c r="J11">
-        <v>4163</v>
+        <v>4484</v>
       </c>
       <c r="K11">
-        <v>4731</v>
+        <v>5005</v>
       </c>
       <c r="L11">
-        <v>5153</v>
+        <v>5219</v>
       </c>
       <c r="M11">
-        <v>5750</v>
+        <v>5634</v>
       </c>
       <c r="N11">
-        <v>6390</v>
+        <v>6012</v>
       </c>
       <c r="O11">
-        <v>7130</v>
+        <v>6422</v>
       </c>
       <c r="P11">
-        <v>7373</v>
+        <v>6740</v>
       </c>
       <c r="Q11">
-        <v>7690</v>
+        <v>6814</v>
       </c>
       <c r="R11">
-        <v>7793</v>
+        <v>6825</v>
       </c>
       <c r="S11">
-        <v>8060</v>
+        <v>7127</v>
       </c>
       <c r="T11">
-        <v>8092</v>
+        <v>7736</v>
       </c>
       <c r="U11">
-        <v>2058</v>
+        <v>8488</v>
       </c>
       <c r="V11">
-        <v>7</v>
+        <v>8739</v>
       </c>
       <c r="W11">
-        <v>2</v>
+        <v>9853</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>9151</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>7526</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Anatomy</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B12">
-        <v>1996</v>
+        <v>2034</v>
       </c>
       <c r="C12">
-        <v>2109</v>
+        <v>2130</v>
       </c>
       <c r="D12">
-        <v>2258</v>
+        <v>2249</v>
       </c>
       <c r="E12">
-        <v>2504</v>
+        <v>2478</v>
       </c>
       <c r="F12">
-        <v>2817</v>
+        <v>2834</v>
       </c>
       <c r="G12">
-        <v>3145</v>
+        <v>3176</v>
       </c>
       <c r="H12">
-        <v>3547</v>
+        <v>3595</v>
       </c>
       <c r="I12">
-        <v>4111</v>
+        <v>4018</v>
       </c>
       <c r="J12">
-        <v>4190</v>
+        <v>4348</v>
       </c>
       <c r="K12">
-        <v>4696</v>
+        <v>4932</v>
       </c>
       <c r="L12">
-        <v>4955</v>
+        <v>5319</v>
       </c>
       <c r="M12">
-        <v>5335</v>
+        <v>6034</v>
       </c>
       <c r="N12">
-        <v>5706</v>
+        <v>6766</v>
       </c>
       <c r="O12">
-        <v>6048</v>
+        <v>7641</v>
       </c>
       <c r="P12">
-        <v>6401</v>
+        <v>7888</v>
       </c>
       <c r="Q12">
-        <v>6418</v>
+        <v>8167</v>
       </c>
       <c r="R12">
-        <v>6475</v>
+        <v>8064</v>
       </c>
       <c r="S12">
-        <v>6764</v>
+        <v>8360</v>
       </c>
       <c r="T12">
-        <v>6786</v>
+        <v>9321</v>
       </c>
       <c r="U12">
-        <v>1846</v>
+        <v>9962</v>
       </c>
       <c r="V12">
-        <v>8</v>
+        <v>8359</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>5860</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>2758</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1880</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -2938,79 +2938,79 @@
         </is>
       </c>
       <c r="B13">
-        <v>1658</v>
+        <v>1929</v>
       </c>
       <c r="C13">
-        <v>1895</v>
+        <v>2217</v>
       </c>
       <c r="D13">
-        <v>2133</v>
+        <v>2497</v>
       </c>
       <c r="E13">
-        <v>2419</v>
+        <v>2841</v>
       </c>
       <c r="F13">
-        <v>2957</v>
+        <v>3296</v>
       </c>
       <c r="G13">
-        <v>3369</v>
+        <v>3736</v>
       </c>
       <c r="H13">
-        <v>3672</v>
+        <v>3997</v>
       </c>
       <c r="I13">
-        <v>4220</v>
+        <v>4590</v>
       </c>
       <c r="J13">
-        <v>4237</v>
+        <v>4628</v>
       </c>
       <c r="K13">
-        <v>4561</v>
+        <v>4999</v>
       </c>
       <c r="L13">
-        <v>4711</v>
+        <v>5120</v>
       </c>
       <c r="M13">
-        <v>5041</v>
+        <v>5463</v>
       </c>
       <c r="N13">
-        <v>5245</v>
+        <v>5644</v>
       </c>
       <c r="O13">
-        <v>5493</v>
+        <v>5914</v>
       </c>
       <c r="P13">
-        <v>5445</v>
+        <v>5834</v>
       </c>
       <c r="Q13">
-        <v>5497</v>
+        <v>5933</v>
       </c>
       <c r="R13">
-        <v>5481</v>
+        <v>5861</v>
       </c>
       <c r="S13">
-        <v>5556</v>
+        <v>5963</v>
       </c>
       <c r="T13">
-        <v>5466</v>
+        <v>6339</v>
       </c>
       <c r="U13">
-        <v>1828</v>
+        <v>6870</v>
       </c>
       <c r="V13">
-        <v>10</v>
+        <v>7284</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>8162</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>8757</v>
       </c>
       <c r="Y13">
-        <v>2</v>
+        <v>6655</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -3020,79 +3020,79 @@
         </is>
       </c>
       <c r="B14">
-        <v>1473</v>
+        <v>1747</v>
       </c>
       <c r="C14">
-        <v>1744</v>
+        <v>2029</v>
       </c>
       <c r="D14">
-        <v>1930</v>
+        <v>2232</v>
       </c>
       <c r="E14">
-        <v>2286</v>
+        <v>2658</v>
       </c>
       <c r="F14">
-        <v>2548</v>
+        <v>2932</v>
       </c>
       <c r="G14">
-        <v>2932</v>
+        <v>3282</v>
       </c>
       <c r="H14">
-        <v>3463</v>
+        <v>3838</v>
       </c>
       <c r="I14">
-        <v>3661</v>
+        <v>4055</v>
       </c>
       <c r="J14">
-        <v>3843</v>
+        <v>4289</v>
       </c>
       <c r="K14">
-        <v>4487</v>
+        <v>4980</v>
       </c>
       <c r="L14">
-        <v>4418</v>
+        <v>4887</v>
       </c>
       <c r="M14">
-        <v>4780</v>
+        <v>5264</v>
       </c>
       <c r="N14">
-        <v>5008</v>
+        <v>5487</v>
       </c>
       <c r="O14">
-        <v>5379</v>
+        <v>5899</v>
       </c>
       <c r="P14">
-        <v>5379</v>
+        <v>5891</v>
       </c>
       <c r="Q14">
-        <v>5513</v>
+        <v>6082</v>
       </c>
       <c r="R14">
-        <v>5541</v>
+        <v>6039</v>
       </c>
       <c r="S14">
-        <v>5863</v>
+        <v>6430</v>
       </c>
       <c r="T14">
-        <v>5567</v>
+        <v>6752</v>
       </c>
       <c r="U14">
-        <v>1695</v>
+        <v>7558</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>7562</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>8196</v>
       </c>
       <c r="X14">
-        <v>2</v>
+        <v>7000</v>
       </c>
       <c r="Y14">
-        <v>2</v>
+        <v>5345</v>
       </c>
       <c r="Z14">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -3102,79 +3102,79 @@
         </is>
       </c>
       <c r="B15">
-        <v>1258</v>
+        <v>1533</v>
       </c>
       <c r="C15">
-        <v>1525</v>
+        <v>1812</v>
       </c>
       <c r="D15">
-        <v>1591</v>
+        <v>1890</v>
       </c>
       <c r="E15">
-        <v>1823</v>
+        <v>2158</v>
       </c>
       <c r="F15">
-        <v>2003</v>
+        <v>2343</v>
       </c>
       <c r="G15">
-        <v>2163</v>
+        <v>2517</v>
       </c>
       <c r="H15">
-        <v>2522</v>
+        <v>2878</v>
       </c>
       <c r="I15">
-        <v>2765</v>
+        <v>3147</v>
       </c>
       <c r="J15">
-        <v>2952</v>
+        <v>3379</v>
       </c>
       <c r="K15">
-        <v>3271</v>
+        <v>3691</v>
       </c>
       <c r="L15">
-        <v>3579</v>
+        <v>4045</v>
       </c>
       <c r="M15">
-        <v>3835</v>
+        <v>4291</v>
       </c>
       <c r="N15">
-        <v>4046</v>
+        <v>4453</v>
       </c>
       <c r="O15">
-        <v>4318</v>
+        <v>4818</v>
       </c>
       <c r="P15">
-        <v>4599</v>
+        <v>5076</v>
       </c>
       <c r="Q15">
-        <v>4835</v>
+        <v>5297</v>
       </c>
       <c r="R15">
-        <v>4904</v>
+        <v>5378</v>
       </c>
       <c r="S15">
-        <v>4939</v>
+        <v>5444</v>
       </c>
       <c r="T15">
-        <v>4824</v>
+        <v>5921</v>
       </c>
       <c r="U15">
-        <v>1351</v>
+        <v>6428</v>
       </c>
       <c r="V15">
-        <v>4</v>
+        <v>6904</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>7296</v>
       </c>
       <c r="X15">
-        <v>3</v>
+        <v>7041</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>4983</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
@@ -3184,79 +3184,79 @@
         </is>
       </c>
       <c r="B16">
-        <v>995</v>
+        <v>1260</v>
       </c>
       <c r="C16">
-        <v>1187</v>
+        <v>1430</v>
       </c>
       <c r="D16">
-        <v>1222</v>
+        <v>1472</v>
       </c>
       <c r="E16">
-        <v>1427</v>
+        <v>1712</v>
       </c>
       <c r="F16">
-        <v>1580</v>
+        <v>1894</v>
       </c>
       <c r="G16">
-        <v>1787</v>
+        <v>2085</v>
       </c>
       <c r="H16">
-        <v>2047</v>
+        <v>2351</v>
       </c>
       <c r="I16">
-        <v>2237</v>
+        <v>2558</v>
       </c>
       <c r="J16">
-        <v>2138</v>
+        <v>2533</v>
       </c>
       <c r="K16">
-        <v>2345</v>
+        <v>2699</v>
       </c>
       <c r="L16">
-        <v>2668</v>
+        <v>3037</v>
       </c>
       <c r="M16">
-        <v>2899</v>
+        <v>3223</v>
       </c>
       <c r="N16">
-        <v>3141</v>
+        <v>3431</v>
       </c>
       <c r="O16">
-        <v>3283</v>
+        <v>3596</v>
       </c>
       <c r="P16">
-        <v>3315</v>
+        <v>3621</v>
       </c>
       <c r="Q16">
-        <v>3634</v>
+        <v>3932</v>
       </c>
       <c r="R16">
-        <v>3711</v>
+        <v>4045</v>
       </c>
       <c r="S16">
-        <v>3734</v>
+        <v>4093</v>
       </c>
       <c r="T16">
-        <v>3741</v>
+        <v>4492</v>
       </c>
       <c r="U16">
-        <v>1210</v>
+        <v>4933</v>
       </c>
       <c r="V16">
-        <v>6</v>
+        <v>5490</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>5393</v>
       </c>
       <c r="X16">
-        <v>3</v>
+        <v>4594</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>3336</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -3266,79 +3266,79 @@
         </is>
       </c>
       <c r="B17">
-        <v>721</v>
+        <v>819</v>
       </c>
       <c r="C17">
-        <v>814</v>
+        <v>926</v>
       </c>
       <c r="D17">
-        <v>965</v>
+        <v>1092</v>
       </c>
       <c r="E17">
-        <v>1074</v>
+        <v>1222</v>
       </c>
       <c r="F17">
-        <v>1164</v>
+        <v>1289</v>
       </c>
       <c r="G17">
-        <v>1302</v>
+        <v>1461</v>
       </c>
       <c r="H17">
-        <v>1676</v>
+        <v>1813</v>
       </c>
       <c r="I17">
-        <v>1712</v>
+        <v>1887</v>
       </c>
       <c r="J17">
-        <v>1853</v>
+        <v>2036</v>
       </c>
       <c r="K17">
-        <v>2176</v>
+        <v>2351</v>
       </c>
       <c r="L17">
-        <v>2228</v>
+        <v>2400</v>
       </c>
       <c r="M17">
-        <v>2676</v>
+        <v>2869</v>
       </c>
       <c r="N17">
-        <v>2701</v>
+        <v>2912</v>
       </c>
       <c r="O17">
-        <v>2920</v>
+        <v>3149</v>
       </c>
       <c r="P17">
-        <v>2995</v>
+        <v>3207</v>
       </c>
       <c r="Q17">
-        <v>3006</v>
+        <v>3218</v>
       </c>
       <c r="R17">
-        <v>3136</v>
+        <v>3348</v>
       </c>
       <c r="S17">
-        <v>3378</v>
+        <v>3576</v>
       </c>
       <c r="T17">
-        <v>3417</v>
+        <v>3877</v>
       </c>
       <c r="U17">
-        <v>1170</v>
+        <v>4123</v>
       </c>
       <c r="V17">
-        <v>7</v>
+        <v>4389</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>4727</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>4952</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>3452</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
@@ -3348,79 +3348,79 @@
         </is>
       </c>
       <c r="B18">
-        <v>377</v>
+        <v>475</v>
       </c>
       <c r="C18">
-        <v>472</v>
+        <v>576</v>
       </c>
       <c r="D18">
-        <v>431</v>
+        <v>529</v>
       </c>
       <c r="E18">
-        <v>536</v>
+        <v>667</v>
       </c>
       <c r="F18">
-        <v>588</v>
+        <v>706</v>
       </c>
       <c r="G18">
-        <v>638</v>
+        <v>774</v>
       </c>
       <c r="H18">
-        <v>656</v>
+        <v>779</v>
       </c>
       <c r="I18">
-        <v>744</v>
+        <v>871</v>
       </c>
       <c r="J18">
-        <v>744</v>
+        <v>905</v>
       </c>
       <c r="K18">
-        <v>890</v>
+        <v>1020</v>
       </c>
       <c r="L18">
-        <v>917</v>
+        <v>1048</v>
       </c>
       <c r="M18">
-        <v>955</v>
+        <v>1065</v>
       </c>
       <c r="N18">
-        <v>998</v>
+        <v>1107</v>
       </c>
       <c r="O18">
-        <v>966</v>
+        <v>1093</v>
       </c>
       <c r="P18">
-        <v>989</v>
+        <v>1114</v>
       </c>
       <c r="Q18">
-        <v>1020</v>
+        <v>1157</v>
       </c>
       <c r="R18">
-        <v>1057</v>
+        <v>1182</v>
       </c>
       <c r="S18">
-        <v>1010</v>
+        <v>1117</v>
       </c>
       <c r="T18">
-        <v>1002</v>
+        <v>1267</v>
       </c>
       <c r="U18">
-        <v>259</v>
+        <v>1333</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>1412</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1462</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1372</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1007</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
